--- a/src/output/survey/4-analyzer/all-cite.xlsx
+++ b/src/output/survey/4-analyzer/all-cite.xlsx
@@ -469,7 +469,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>software organization</t>
+          <t>property</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -494,11 +494,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>software</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -507,48 +507,48 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>software functional property</t>
+          <t>security</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>1745</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>413</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>software</t>
+          <t>software organization</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>formal method</t>
+          <t>it engineer</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -594,7 +594,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>it engineer</t>
+          <t>software functional property</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -619,32 +619,32 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>security</t>
+          <t>formal method</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1745</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>818</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>413</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>human-centered compute</t>
+          <t>empirical study in collaborative</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -669,7 +669,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>empirical study in collaborative</t>
+          <t>human-centered compute</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -744,7 +744,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>computer in other domain</t>
+          <t>information system</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -769,11 +769,11 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>distribute architecture</t>
+          <t>computer system organization</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -794,11 +794,11 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>distribute database transaction</t>
+          <t>peer-to-peer architecture</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -819,11 +819,11 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>architecture</t>
+          <t>distribute database transaction</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -844,11 +844,11 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>e-government</t>
+          <t>compute in government</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -869,11 +869,11 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>data management system</t>
+          <t>architecture</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -894,7 +894,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer architecture</t>
+          <t>distribute architecture</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -919,7 +919,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>computer system organization</t>
+          <t>e-government</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -944,7 +944,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>apply compute</t>
+          <t>computer in other domain</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -969,7 +969,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>compute in government</t>
+          <t>database management system engine</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -994,7 +994,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>database management system engine</t>
+          <t>apply compute</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1019,7 +1019,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>information system</t>
+          <t>data management system</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1119,7 +1119,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>technology policy</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1144,11 +1144,11 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>technology policy</t>
+          <t>compute</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1194,11 +1194,11 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>compute</t>
+          <t>social</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>document type</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1244,7 +1244,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>general</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1269,11 +1269,11 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>overview</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -1282,23 +1282,23 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>survey</t>
+          <t>overview</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1307,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>document type</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1494,7 +1494,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>network architecture</t>
+          <t>network protocol</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1519,7 +1519,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>network protocol</t>
+          <t>network architecture</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1544,7 +1544,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>web application</t>
+          <t>overlay</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1594,7 +1594,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>web</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1619,7 +1619,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>web application</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1644,7 +1644,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>other logical network structure</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1669,7 +1669,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>online social network</t>
+          <t>other logical network structure</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1694,7 +1694,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>overlay</t>
+          <t>world</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1719,7 +1719,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>web</t>
+          <t>online social network</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1769,107 +1769,107 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>smart contract</t>
+          <t>critical analysis</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1814</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>503</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>critical analysis</t>
+          <t>smart contract</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1814</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>503</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>quantum compute</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1498</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>946</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>cryptocurrency</t>
+          <t>mission critical</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>mission critical</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1894,51 +1894,51 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>quantum compute</t>
+          <t>cryptocurrency</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3</v>
+        <v>978</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1498</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61">
@@ -1970,11 +1970,11 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>cyber-physical system</t>
+          <t>edge compute</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -1986,45 +1986,45 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>big data</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>smart factory</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2039,17 +2039,17 @@
         <v>41</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>edge compute</t>
+          <t>cyber-physical system</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2061,45 +2061,45 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>fog</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>industrial iot</t>
+          <t>big data</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2108,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F67" t="n">
         <v>41</v>
       </c>
       <c r="G67" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>smart factory</t>
+          <t>industrial iot</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2145,7 +2145,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>reference architecture</t>
+          <t>threat-risk assessment</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2170,7 +2170,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>threat-risk assessment</t>
+          <t>reference architecture</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2195,11 +2195,11 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>artificial intelligence</t>
+          <t>wireless communication</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2208,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>wireless communication</t>
+          <t>irs</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2245,7 +2245,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>irs</t>
+          <t>index modulation</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2270,7 +2270,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>index modulation</t>
+          <t>6g</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2295,7 +2295,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>6g</t>
+          <t>intelligent reflect surface</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2320,7 +2320,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>intelligent reflect surface</t>
+          <t>terahertz</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2345,11 +2345,11 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>terahertz</t>
+          <t>artificial intelligence</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2358,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2395,26 +2395,26 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>distribute consensus</t>
+          <t>fault tolerance</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2445,26 +2445,26 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>fault tolerance</t>
+          <t>distribute consensus</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
@@ -2495,7 +2495,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>theoretical model</t>
+          <t>experiment tool</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2545,7 +2545,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>experiment tool</t>
+          <t>theoretical model</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2570,11 +2570,11 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>mine management</t>
+          <t>game theory</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="F86" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -2595,11 +2595,11 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>game theory</t>
+          <t>mine management</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2620,11 +2620,11 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>cross-chain transaction</t>
+          <t>interoperability</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2639,23 +2639,23 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>interoperability</t>
+          <t>ards</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -2664,23 +2664,23 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>ards</t>
+          <t>cross-chain transaction</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -2770,32 +2770,32 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>consensus</t>
+          <t>p2p network</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>679</v>
+        <v>1148</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="D94" t="n">
-        <v>272</v>
+        <v>434</v>
       </c>
       <c r="E94" t="n">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="F94" t="n">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="G94" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>permissionless consensus</t>
+          <t>incentive mechanism</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2820,11 +2820,11 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>mine</t>
+          <t>permissionless consensus</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>119</v>
       </c>
       <c r="F96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -2845,36 +2845,36 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>p2p network</t>
+          <t>consensus</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1148</v>
+        <v>679</v>
       </c>
       <c r="C97" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>434</v>
+        <v>272</v>
       </c>
       <c r="E97" t="n">
-        <v>338</v>
+        <v>213</v>
       </c>
       <c r="F97" t="n">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="G97" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>incentive mechanism</t>
+          <t>mine</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>119</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>user privacy</t>
+          <t>bitcoins</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2920,7 +2920,7 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>bitcoins</t>
+          <t>user privacy</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3020,11 +3020,11 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>trust</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -3033,10 +3033,10 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="F104" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -3045,11 +3045,11 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>trust</t>
+          <t>supply chain</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -3058,13 +3058,13 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
@@ -3095,11 +3095,11 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>supply chain</t>
+          <t>data management</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3108,23 +3108,23 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F107" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>data management</t>
+          <t>healthcare</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3133,13 +3133,13 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3220,7 +3220,7 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>diploma</t>
+          <t>certificate</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3245,11 +3245,11 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>diploma</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3270,11 +3270,11 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>certificate</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3345,7 +3345,7 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>concurrent compute</t>
+          <t>cryptographic protocol</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3370,7 +3370,7 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>cryptographic protocol</t>
+          <t>concurrent compute</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3395,11 +3395,11 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>software define network</t>
+          <t>machine learning</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3411,20 +3411,20 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>uavs</t>
+          <t>software define network</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3439,17 +3439,17 @@
         <v>14</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>machine learning</t>
+          <t>5g network</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3461,16 +3461,16 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>d2d communication</t>
+          <t>network slice</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3495,7 +3495,7 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>5g network</t>
+          <t>5g service</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3520,7 +3520,7 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>mobile edge compute</t>
+          <t>d2d communication</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3545,11 +3545,11 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>network slice</t>
+          <t>5g internet of thing</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -3564,17 +3564,17 @@
         <v>14</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>5g internet of thing</t>
+          <t>network function virtualization</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -3589,13 +3589,13 @@
         <v>14</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>network function virtualization</t>
+          <t>mobile edge compute</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3620,11 +3620,11 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>5g service</t>
+          <t>uavs</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3639,32 +3639,32 @@
         <v>14</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>system analysis</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>28</v>
+        <v>379</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="E129" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
@@ -3695,7 +3695,7 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>computer network</t>
+          <t>urban sustainability</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3720,11 +3720,11 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>smart city</t>
+          <t>system analysis</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -3733,19 +3733,19 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F132" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>distribute compute</t>
+          <t>crypto token</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3770,7 +3770,7 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>urban sustainability</t>
+          <t>distribute compute</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3795,36 +3795,36 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>computer network</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>379</v>
+        <v>28</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F135" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>crypto token</t>
+          <t>use case</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>28</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -3870,11 +3870,11 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>use case</t>
+          <t>smart city</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C138" t="n">
         <v>0</v>
@@ -3883,23 +3883,23 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F138" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>energy trade</t>
+          <t>distribute energy resource</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -3920,11 +3920,11 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>grid 2.0</t>
+          <t>energy trade</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>distribute energy resource</t>
+          <t>microgrid</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3970,11 +3970,11 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>smart grid</t>
+          <t>grid 2.0</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -3983,23 +3983,23 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G142" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>microgrid</t>
+          <t>smart grid</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -4008,13 +4008,13 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144">
@@ -4120,7 +4120,7 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>autonomous robot</t>
+          <t>serial digital video out</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4145,7 +4145,7 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>serial digital video out</t>
+          <t>mobile robot</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4170,7 +4170,7 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>autonomous system</t>
+          <t>autonomous robot</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4195,7 +4195,7 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>mobile robot</t>
+          <t>autonomous system</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4445,7 +4445,7 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>quantum bite</t>
+          <t>quantum classification</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -4495,7 +4495,7 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>quantum inspire</t>
+          <t>quantum bite</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -4570,7 +4570,7 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>quantum classification</t>
+          <t>quantum inspire</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -4595,7 +4595,7 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>relay</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -4620,7 +4620,7 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>http public key pin</t>
+          <t>relay</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -4645,7 +4645,7 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>http public key pin</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -4670,7 +4670,7 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>validators</t>
+          <t>decentralise system</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -4720,7 +4720,7 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>decentralise system</t>
+          <t>validators</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -4745,7 +4745,7 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>econometrics</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -4770,7 +4770,7 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>econometrics</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -4920,11 +4920,11 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>tool</t>
+          <t>debug</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F180" t="n">
         <v>6</v>
@@ -4945,7 +4945,7 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>debug</t>
+          <t>solidity</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -4970,7 +4970,7 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>solidity</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -4995,11 +4995,11 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>tool</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -5008,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F183" t="n">
         <v>6</v>
@@ -5045,7 +5045,7 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>attack surface</t>
+          <t>peer-to-peer system</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -5070,7 +5070,7 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer system</t>
+          <t>attack surface</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -5170,7 +5170,7 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>global network</t>
+          <t>essence</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -5195,7 +5195,7 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>essence</t>
+          <t>global network</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -5220,7 +5220,7 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>surface web</t>
+          <t>tor-services</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -5245,7 +5245,7 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>darknet</t>
+          <t>deep web</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -5270,7 +5270,7 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>illicit drug</t>
+          <t>surface web</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -5295,7 +5295,7 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>deep web</t>
+          <t>darknet</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -5320,7 +5320,7 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>tor-services</t>
+          <t>illicit drug</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -5420,32 +5420,32 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>database</t>
+          <t>cap</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C200" t="n">
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>cap</t>
+          <t>immutability</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -5470,7 +5470,7 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>immutability</t>
+          <t>dc theorem</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -5520,26 +5520,26 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>dc theorem</t>
+          <t>database</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -5595,23 +5595,23 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>parity bite</t>
+          <t>distribute database</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D207" t="n">
         <v>297</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -5620,23 +5620,23 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>distribute database</t>
+          <t>power interface</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>356</v>
+        <v>297</v>
       </c>
       <c r="C208" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>297</v>
       </c>
       <c r="E208" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -5645,7 +5645,7 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>power interface</t>
+          <t>advance configuration</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -5670,7 +5670,7 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>advance configuration</t>
+          <t>parity bite</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -5720,7 +5720,7 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>direct acyclic graph</t>
+          <t>tangle</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -5745,7 +5745,7 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>tangle</t>
+          <t>direct acyclic graph</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -5795,11 +5795,11 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>database system</t>
+          <t>tutorial</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="C215" t="n">
         <v>38</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -5845,11 +5845,11 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>tutorial</t>
+          <t>database system</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C217" t="n">
         <v>38</v>
@@ -5861,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -5870,11 +5870,11 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>data mine</t>
+          <t>bibliography</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="C218" t="n">
         <v>173</v>
@@ -5883,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
         <v>2</v>
-      </c>
-      <c r="F218" t="n">
-        <v>49</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -5895,11 +5895,11 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>bibliography</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C219" t="n">
         <v>173</v>
@@ -5911,20 +5911,20 @@
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>data mine</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="C220" t="n">
         <v>173</v>
@@ -5933,19 +5933,19 @@
         <v>0</v>
       </c>
       <c r="E220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F220" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>microgrids</t>
+          <t>process control</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -5970,7 +5970,7 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>process control</t>
+          <t>microgrids</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -6095,7 +6095,7 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>algorithm design</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -6120,11 +6120,11 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>algorithm design</t>
+          <t>server</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -6133,10 +6133,10 @@
         <v>44</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G228" t="n">
         <v>0</v>
@@ -6145,11 +6145,11 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>server</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -6158,10 +6158,10 @@
         <v>44</v>
       </c>
       <c r="E229" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="G229" t="n">
         <v>0</v>
@@ -6170,7 +6170,7 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -6270,11 +6270,11 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>smart home</t>
+          <t>intelligent sensor</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -6283,23 +6283,23 @@
         <v>11</v>
       </c>
       <c r="E234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>intelligent sensor</t>
+          <t>smart home</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -6308,23 +6308,23 @@
         <v>11</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F235" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>elliptic curve cryptography</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -6333,7 +6333,7 @@
         <v>9</v>
       </c>
       <c r="E236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -6345,11 +6345,11 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>elliptic curve cryptography</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>9</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -6420,11 +6420,11 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>biological system model</t>
+          <t>computational model</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G240" t="n">
         <v>0</v>
@@ -6470,11 +6470,11 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>computational model</t>
+          <t>biological system model</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G242" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>dog</t>
+          <t>blog</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -6570,7 +6570,7 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>blog</t>
+          <t>dog</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -6795,11 +6795,11 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>technological innovation</t>
+          <t>economics</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>7</v>
       </c>
       <c r="F255" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G255" t="n">
         <v>0</v>
@@ -6820,11 +6820,11 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>economics</t>
+          <t>company</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -6836,7 +6836,7 @@
         <v>7</v>
       </c>
       <c r="F256" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G256" t="n">
         <v>0</v>
@@ -6845,7 +6845,7 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>technological innovation</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -7220,7 +7220,7 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>watermarking</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -7245,7 +7245,7 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>plagiarism</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -7270,7 +7270,7 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>watermarking</t>
+          <t>plagiarism</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -7420,7 +7420,7 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>pob</t>
+          <t>permissioned</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -7445,7 +7445,7 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>permissioned</t>
+          <t>pob</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -7470,7 +7470,7 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>oil</t>
+          <t>natural gas</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -7495,7 +7495,7 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>natural gas</t>
+          <t>natural gas industry</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -7520,7 +7520,7 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>natural gas industry</t>
+          <t>oil</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -7620,7 +7620,7 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>taxonomy</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -7645,7 +7645,7 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>taxonomy</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -7845,7 +7845,7 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>sociology</t>
+          <t>statistic</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -7870,7 +7870,7 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>sociology</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -8270,7 +8270,7 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>fpga</t>
+          <t>asic</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -8295,7 +8295,7 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>cpu</t>
+          <t>hardware architecture</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -8320,7 +8320,7 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>asic</t>
+          <t>fpga</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -8345,7 +8345,7 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>gpu</t>
+          <t>cpu</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -8395,7 +8395,7 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>hardware architecture</t>
+          <t>gpu</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -8420,11 +8420,11 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>energy market</t>
+          <t>energy</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C320" t="n">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="F320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G320" t="n">
         <v>0</v>
@@ -8445,7 +8445,7 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>energetics</t>
+          <t>carbon certificate</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -8470,7 +8470,7 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>carbon certificate</t>
+          <t>energetics</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -8495,11 +8495,11 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>energy</t>
+          <t>energy market</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
         <v>0</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G323" t="n">
         <v>0</v>
@@ -8570,7 +8570,7 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>data model</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -8595,7 +8595,7 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>data model</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -8745,7 +8745,7 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>second layer solution</t>
+          <t>first layer solution</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -8770,7 +8770,7 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>first layer solution</t>
+          <t>second layer solution</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -8795,7 +8795,7 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>rout</t>
+          <t>width</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -8845,7 +8845,7 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>width</t>
+          <t>web server</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -8870,7 +8870,7 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>web server</t>
+          <t>b</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -8895,7 +8895,7 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>rout</t>
         </is>
       </c>
       <c r="B339" t="n">
@@ -9045,7 +9045,7 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>data acquisition</t>
+          <t>pattern classification</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -9070,7 +9070,7 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>pattern classification</t>
+          <t>data acquisition</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -9120,7 +9120,7 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>energy resource</t>
+          <t>price</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -9145,7 +9145,7 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>australia</t>
+          <t>energy resource</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -9195,7 +9195,7 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>australia</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -9420,7 +9420,7 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>prisma-scr</t>
+          <t>biomedical domain</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -9445,11 +9445,11 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>biomedical domain</t>
+          <t>scoping review</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C361" t="n">
         <v>0</v>
@@ -9464,17 +9464,17 @@
         <v>22</v>
       </c>
       <c r="G361" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>scoping review</t>
+          <t>prisma-scr</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C362" t="n">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>22</v>
       </c>
       <c r="G362" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -9545,7 +9545,7 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>peer-to-peer energy trade</t>
+          <t>energy decentralisation</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -9570,7 +9570,7 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>energy decentralisation</t>
+          <t>renewable energy</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -9620,7 +9620,7 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>renewable energy</t>
+          <t>peer-to-peer energy trade</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -9645,11 +9645,11 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>construction industry</t>
+          <t>compliance</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="E369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F369" t="n">
         <v>22</v>
@@ -9670,7 +9670,7 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>socio-technical system</t>
+          <t>build environment</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -9695,11 +9695,11 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>project bank account</t>
+          <t>socio-technical system</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="E371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F371" t="n">
         <v>22</v>
@@ -9720,7 +9720,7 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>compliance</t>
+          <t>project bank account</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -9770,7 +9770,7 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>build environment</t>
+          <t>construction industry</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -9845,7 +9845,7 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>digital asset</t>
+          <t>sidechains</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -9870,7 +9870,7 @@
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>sidechains</t>
+          <t>digital asset</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -9995,7 +9995,7 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>financial technology</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -10020,7 +10020,7 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>financial technology</t>
+          <t>benefit</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -10095,7 +10095,7 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>ethic</t>
+          <t>adoption</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -10145,7 +10145,7 @@
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>adoption</t>
+          <t>ethic</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -10245,7 +10245,7 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>innovation</t>
+          <t>z1</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -10295,7 +10295,7 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>z1</t>
+          <t>o2</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -10320,7 +10320,7 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>o2</t>
+          <t>innovation</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -10345,20 +10345,20 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>food sustainability</t>
+          <t>transparency</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E397" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
@@ -10370,20 +10370,20 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>transparency</t>
+          <t>food sustainability</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C398" t="n">
         <v>0</v>
       </c>
       <c r="D398" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E398" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F398" t="n">
         <v>0</v>
@@ -10645,7 +10645,7 @@
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>adaptive requirement</t>
+          <t>homecare</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -10670,7 +10670,7 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>automation</t>
+          <t>p2p data marketplace</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -10695,7 +10695,7 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>p2p data marketplace</t>
+          <t>automation</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -10720,7 +10720,7 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>homecare</t>
+          <t>adaptive requirement</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -10995,7 +10995,7 @@
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>synopsis</t>
+          <t>p2p platform evolution</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -11020,7 +11020,7 @@
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>p2p platform evolution</t>
+          <t>self-organizing community</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -11045,7 +11045,7 @@
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>new economy</t>
+          <t>synopsis</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -11070,7 +11070,7 @@
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>adhocracy</t>
+          <t>social technology</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -11095,7 +11095,7 @@
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>social technology</t>
+          <t>new economy</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -11145,7 +11145,7 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>self-organizing community</t>
+          <t>adhocracy</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -11170,7 +11170,7 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>om oracle</t>
+          <t>r</t>
         </is>
       </c>
       <c r="B430" t="n">
@@ -11245,7 +11245,7 @@
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>network delay</t>
+          <t>attack strategy</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -11270,11 +11270,11 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>attack strategy</t>
+          <t>om oracle</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -11289,17 +11289,17 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>r</t>
+          <t>network delay</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C435" t="n">
         <v>0</v>
@@ -11314,13 +11314,13 @@
         <v>0</v>
       </c>
       <c r="G435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>reproducibility</t>
+          <t>data share</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -11345,7 +11345,7 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>data share</t>
+          <t>reproducibility</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -11370,7 +11370,7 @@
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>digital currency</t>
+          <t>disintegration</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -11420,7 +11420,7 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>disintegration</t>
+          <t>digital currency</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -11445,7 +11445,7 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>sequence</t>
+          <t>cluster</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -11470,7 +11470,7 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>cluster</t>
+          <t>sequence</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -11545,7 +11545,7 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>open source software project</t>
+          <t>financial contract</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -11570,7 +11570,7 @@
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>financial contract</t>
+          <t>open source software project</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -11770,7 +11770,7 @@
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>enterprise ontology</t>
+          <t>rea</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -11795,7 +11795,7 @@
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>rea</t>
+          <t>enterprise ontology</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -11820,7 +11820,7 @@
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>financial service</t>
+          <t>credit card</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -11845,7 +11845,7 @@
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>credit card</t>
+          <t>financial intermediary</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -11895,7 +11895,7 @@
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>payment system</t>
+          <t>financial service</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -11920,7 +11920,7 @@
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>financial intermediary</t>
+          <t>payment system</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -11945,7 +11945,7 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>decentralize compute</t>
+          <t>development</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -11995,7 +11995,7 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>cod</t>
+          <t>decentralize compute</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -12045,7 +12045,7 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>cod</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -12220,7 +12220,7 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>system design</t>
+          <t>holistic approach</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -12245,7 +12245,7 @@
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>holistic approach</t>
+          <t>system design</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -12320,7 +12320,7 @@
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>virtual scientific communication</t>
+          <t>hash function</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -12345,7 +12345,7 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>scientific communication</t>
+          <t>scientific</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -12370,7 +12370,7 @@
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>hash function</t>
+          <t>scientific communication</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -12395,7 +12395,7 @@
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>information support</t>
+          <t>virtual scientific communication</t>
         </is>
       </c>
       <c r="B479" t="n">
@@ -12420,7 +12420,7 @@
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>scientific</t>
+          <t>information support</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -12445,7 +12445,7 @@
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>box</t>
+          <t>regulatory s</t>
         </is>
       </c>
       <c r="B481" t="n">
@@ -12470,7 +12470,7 @@
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>regulatory s</t>
+          <t>box</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -12495,11 +12495,11 @@
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>technology neutrality</t>
+          <t>initial coin offer</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C483" t="n">
         <v>0</v>
@@ -12514,17 +12514,17 @@
         <v>0</v>
       </c>
       <c r="G483" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>initial coin offer</t>
+          <t>technology neutrality</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C484" t="n">
         <v>0</v>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="G484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -12570,7 +12570,7 @@
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>verteilte buchführung</t>
+          <t>kryptowährung</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -12595,7 +12595,7 @@
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>asymmetrische verschlüsselung</t>
+          <t>konsensalgorithmus</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -12620,7 +12620,7 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>konsensalgorithmus</t>
+          <t>verteilte buchführung</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -12645,7 +12645,7 @@
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>kryptowährung</t>
+          <t>asymmetric encryption</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -12670,7 +12670,7 @@
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>distibuted ledger</t>
+          <t>asymmetrische verschlüsselung</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -12695,7 +12695,7 @@
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>asymmetric encryption</t>
+          <t>distibuted ledger</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -12920,7 +12920,7 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>neuroscience</t>
+          <t>heisenberg uncertainty principle</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -12945,7 +12945,7 @@
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>heisenberg uncertainty principle</t>
+          <t>neuroscience</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -12970,11 +12970,11 @@
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>g21</t>
+          <t>o33</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C502" t="n">
         <v>0</v>
@@ -12989,13 +12989,13 @@
         <v>0</v>
       </c>
       <c r="G502" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>information asymmetry</t>
+          <t>smes finance</t>
         </is>
       </c>
       <c r="B503" t="n">
@@ -13045,11 +13045,11 @@
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>o33</t>
+          <t>information asymmetry</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C505" t="n">
         <v>0</v>
@@ -13064,13 +13064,13 @@
         <v>0</v>
       </c>
       <c r="G505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>smes finance</t>
+          <t>credit ration</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -13095,7 +13095,7 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>credit ration</t>
+          <t>g21</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -13120,7 +13120,7 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>software architecture</t>
+          <t>architecture style</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -13145,7 +13145,7 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>architecture style</t>
+          <t>software architecture</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -13195,7 +13195,7 @@
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>solve complex mathematical problem</t>
+          <t>sale item</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -13220,7 +13220,7 @@
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>data marketplace</t>
+          <t>solve complex mathematical problem</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -13245,7 +13245,7 @@
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>sale item</t>
+          <t>data marketplace</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -13270,7 +13270,7 @@
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
         <is>
-          <t>citizen broadb</t>
+          <t>mobile broadb</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -13320,7 +13320,7 @@
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
         <is>
-          <t>cognitive radio</t>
+          <t>citizen broadb</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -13345,7 +13345,7 @@
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
         <is>
-          <t>mobile broadb</t>
+          <t>cognitive radio</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -13420,7 +13420,7 @@
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
         <is>
-          <t>technology usage</t>
+          <t>emerge technology</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -13445,7 +13445,7 @@
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
         <is>
-          <t>emerge technology</t>
+          <t>technology usage</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -13470,7 +13470,7 @@
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
         <is>
-          <t>e-governance</t>
+          <t>smart place</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -13495,7 +13495,7 @@
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
         <is>
-          <t>smart place</t>
+          <t>e-governance</t>
         </is>
       </c>
       <c r="B523" t="n">
@@ -13720,7 +13720,7 @@
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>crypto-spatial coordinate system</t>
+          <t>pharmaceutical</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -13745,7 +13745,7 @@
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
         <is>
-          <t>pharmaceutical</t>
+          <t>crypto-spatial coordinate system</t>
         </is>
       </c>
       <c r="B533" t="n">
@@ -13870,7 +13870,7 @@
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
         <is>
-          <t>block-generation process</t>
+          <t>queue theory</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -13895,7 +13895,7 @@
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
         <is>
-          <t>mine process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -13945,7 +13945,7 @@
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>block-generation process</t>
         </is>
       </c>
       <c r="B541" t="n">
@@ -13970,7 +13970,7 @@
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
         <is>
-          <t>queue theory</t>
+          <t>mine process</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -13995,7 +13995,7 @@
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
         <is>
-          <t>ibe</t>
+          <t>digital identity</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -14020,7 +14020,7 @@
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
         <is>
-          <t>digital identity</t>
+          <t>ibe</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -14195,7 +14195,7 @@
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
         <is>
-          <t>legal relevance</t>
+          <t>antlr</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -14220,7 +14220,7 @@
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
         <is>
-          <t>antlr</t>
+          <t>ontological completeness</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -14270,7 +14270,7 @@
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
         <is>
-          <t>ontological completeness</t>
+          <t>socio-technical</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -14295,7 +14295,7 @@
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
         <is>
-          <t>socio-technical</t>
+          <t>legal relevance</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -14320,7 +14320,7 @@
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
         <is>
-          <t>cr model</t>
+          <t>zk-snarks</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -14345,7 +14345,7 @@
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
         <is>
-          <t>zk-snarks</t>
+          <t>cr model</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -14395,7 +14395,7 @@
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
         <is>
-          <t>taxation</t>
+          <t>electronic document</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -14420,7 +14420,7 @@
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
         <is>
-          <t>electronic document</t>
+          <t>taxation</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -14445,7 +14445,7 @@
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
         <is>
-          <t>turing complete language</t>
+          <t>computability</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -14470,7 +14470,7 @@
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
         <is>
-          <t>computability</t>
+          <t>turing complete language</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -14570,7 +14570,7 @@
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
         <is>
-          <t>legislation</t>
+          <t>colombia</t>
         </is>
       </c>
       <c r="B566" t="n">
@@ -14595,7 +14595,7 @@
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
         <is>
-          <t>colombia</t>
+          <t>legislation</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -14620,7 +14620,7 @@
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
         <is>
-          <t>smart wallet</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -14645,7 +14645,7 @@
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
         <is>
-          <t>cost</t>
+          <t>smart wallet</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -14720,11 +14720,11 @@
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
         <is>
-          <t>electronic health record</t>
+          <t>genomics</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C572" t="n">
         <v>0</v>
@@ -14736,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="F572" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="G572" t="n">
         <v>0</v>
@@ -14745,7 +14745,7 @@
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
         <is>
-          <t>genomics</t>
+          <t>health informatics</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -14770,7 +14770,7 @@
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
         <is>
-          <t>health informatics</t>
+          <t>healthcare technology</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -14795,7 +14795,7 @@
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
         <is>
-          <t>healthcare technology</t>
+          <t>medical licensure</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -14820,11 +14820,11 @@
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
         <is>
-          <t>medical licensure</t>
+          <t>electronic health record</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C576" t="n">
         <v>0</v>
@@ -14836,7 +14836,7 @@
         <v>0</v>
       </c>
       <c r="F576" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G576" t="n">
         <v>0</v>
@@ -14895,7 +14895,7 @@
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
         <is>
-          <t>referential integrity</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -14945,7 +14945,7 @@
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>referential integrity</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -15220,7 +15220,7 @@
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
         <is>
-          <t>test-driven software development</t>
+          <t>software development integrity</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -15245,7 +15245,7 @@
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
         <is>
-          <t>software development integrity</t>
+          <t>test-driven software development</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -15320,7 +15320,7 @@
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
         <is>
-          <t>insurance</t>
+          <t>precision medicine</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -15370,7 +15370,7 @@
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
         <is>
-          <t>health information exchange</t>
+          <t>pharma</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -15395,7 +15395,7 @@
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
         <is>
-          <t>electronic medical record</t>
+          <t>health information exchange</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -15420,7 +15420,7 @@
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
         <is>
-          <t>emr</t>
+          <t>insurance</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -15445,7 +15445,7 @@
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
         <is>
-          <t>pharma</t>
+          <t>emr</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -15470,7 +15470,7 @@
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
         <is>
-          <t>decentralize consensus</t>
+          <t>pharmacogenomics</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -15495,7 +15495,7 @@
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
         <is>
-          <t>pharmacogenomics</t>
+          <t>electronic medical record</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -15520,7 +15520,7 @@
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
         <is>
-          <t>precision medicine</t>
+          <t>decentralize consensus</t>
         </is>
       </c>
       <c r="B604" t="n">
@@ -15645,7 +15645,7 @@
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
         <is>
-          <t>flip learn</t>
+          <t>role-playing game</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -15670,7 +15670,7 @@
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
         <is>
-          <t>role-playing game</t>
+          <t>flip learn</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -15720,7 +15720,7 @@
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
         <is>
-          <t>critical national infrastructure</t>
+          <t>data breach</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -15745,7 +15745,7 @@
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
         <is>
-          <t>cyber operation</t>
+          <t>cyberwarfare</t>
         </is>
       </c>
       <c r="B613" t="n">
@@ -15770,7 +15770,7 @@
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
         <is>
-          <t>data breach</t>
+          <t>red team</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -15795,7 +15795,7 @@
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
         <is>
-          <t>cyberwarfare</t>
+          <t>scada</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -15820,7 +15820,7 @@
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
         <is>
-          <t>scada</t>
+          <t>critical national infrastructure</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -15845,7 +15845,7 @@
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
         <is>
-          <t>red team</t>
+          <t>cyber operation</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -15870,7 +15870,7 @@
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
         <is>
-          <t>naive bay classifier</t>
+          <t>microlending</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -15895,7 +15895,7 @@
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
         <is>
-          <t>microlending</t>
+          <t>naive bay classifier</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -15920,7 +15920,7 @@
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
         <is>
-          <t>learn content creation</t>
+          <t>instructional design</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -15945,7 +15945,7 @@
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
         <is>
-          <t>instructional design</t>
+          <t>learn content creation</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -15970,7 +15970,7 @@
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
         <is>
-          <t>solar energy</t>
+          <t>electric vehicle</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -15995,7 +15995,7 @@
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
         <is>
-          <t>distribute generation</t>
+          <t>photovoltaic</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -16020,7 +16020,7 @@
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
         <is>
-          <t>distribute mobility service</t>
+          <t>ridesharing</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -16045,7 +16045,7 @@
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
         <is>
-          <t>photovoltaic</t>
+          <t>distribute generation</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -16095,7 +16095,7 @@
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
         <is>
-          <t>ridesharing</t>
+          <t>distribute mobility service</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -16120,7 +16120,7 @@
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
         <is>
-          <t>electric vehicle</t>
+          <t>autonomous vehicle</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -16145,7 +16145,7 @@
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
         <is>
-          <t>autonomous vehicle</t>
+          <t>solar energy</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -16170,7 +16170,7 @@
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
         <is>
-          <t>temporal epistemic logic with probability</t>
+          <t>formal model</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -16195,7 +16195,7 @@
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
         <is>
-          <t>formal model</t>
+          <t>specification</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -16220,7 +16220,7 @@
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
         <is>
-          <t>specification</t>
+          <t>temporal epistemic logic with probability</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -16270,7 +16270,7 @@
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
         <is>
-          <t>digital witness</t>
+          <t>digital evidence</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -16295,7 +16295,7 @@
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
         <is>
-          <t>liability attribution</t>
+          <t>forensic readiness</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -16320,7 +16320,7 @@
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
         <is>
-          <t>forensic readiness</t>
+          <t>decentralise compute</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -16345,7 +16345,7 @@
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
         <is>
-          <t>digital evidence</t>
+          <t>liability attribution</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -16370,7 +16370,7 @@
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
         <is>
-          <t>incident response</t>
+          <t>digital investigation</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -16395,7 +16395,7 @@
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
         <is>
-          <t>digital investigation</t>
+          <t>digital witness</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -16420,7 +16420,7 @@
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
         <is>
-          <t>decentralise compute</t>
+          <t>incident response</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -16445,7 +16445,7 @@
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
         <is>
-          <t>system chaincode</t>
+          <t>continuous monitor</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -16470,7 +16470,7 @@
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
         <is>
-          <t>continuous monitor</t>
+          <t>system chaincode</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -16520,7 +16520,7 @@
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
         <is>
-          <t>block-structured markov process</t>
+          <t>phase type  distribution</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -16545,7 +16545,7 @@
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
         <is>
-          <t>markovian arrival process</t>
+          <t>rg factorization</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -16570,7 +16570,7 @@
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
         <is>
-          <t>rg factorization</t>
+          <t>markovian arrival process</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -16595,7 +16595,7 @@
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
         <is>
-          <t>phase type  distribution</t>
+          <t>block-structured markov process</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -16645,7 +16645,7 @@
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
         <is>
-          <t>cad</t>
+          <t>bim</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -16670,7 +16670,7 @@
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
         <is>
-          <t>plm</t>
+          <t>cad</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -16695,7 +16695,7 @@
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
         <is>
-          <t>pdm</t>
+          <t>plm</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -16720,7 +16720,7 @@
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
         <is>
-          <t>bim</t>
+          <t>pdm</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -16745,7 +16745,7 @@
     <row r="653">
       <c r="A653" s="1" t="inlineStr">
         <is>
-          <t>decentralize</t>
+          <t>pharmaceutical supply chain</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -16770,7 +16770,7 @@
     <row r="654">
       <c r="A654" s="1" t="inlineStr">
         <is>
-          <t>pharmaceutical supply chain</t>
+          <t>decentralize</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -16820,7 +16820,7 @@
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
         <is>
-          <t>scientometric</t>
+          <t>web of science</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -16845,7 +16845,7 @@
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
         <is>
-          <t>research cooperation</t>
+          <t>knowledge map</t>
         </is>
       </c>
       <c r="B657" t="n">
@@ -16870,7 +16870,7 @@
     <row r="658">
       <c r="A658" s="1" t="inlineStr">
         <is>
-          <t>knowledge map</t>
+          <t>scientometric</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -16895,7 +16895,7 @@
     <row r="659">
       <c r="A659" s="1" t="inlineStr">
         <is>
-          <t>web of science</t>
+          <t>lock chain research</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -16920,7 +16920,7 @@
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
         <is>
-          <t>lock chain research</t>
+          <t>research cooperation</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -16945,7 +16945,7 @@
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>graph analysis</t>
+          <t>anomaly detection</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -16970,7 +16970,7 @@
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
         <is>
-          <t>anomaly detection</t>
+          <t>graph analysis</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -17020,7 +17020,7 @@
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>scientometrics</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -17045,7 +17045,7 @@
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
         <is>
-          <t>scientometrics</t>
+          <t>research</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -17245,7 +17245,7 @@
     <row r="673">
       <c r="A673" s="1" t="inlineStr">
         <is>
-          <t>absorptive capacity</t>
+          <t>start-ups</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -17270,7 +17270,7 @@
     <row r="674">
       <c r="A674" s="1" t="inlineStr">
         <is>
-          <t>start-ups</t>
+          <t>digital transformation</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -17295,7 +17295,7 @@
     <row r="675">
       <c r="A675" s="1" t="inlineStr">
         <is>
-          <t>digital transformation</t>
+          <t>absorptive capacity</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -17370,7 +17370,7 @@
     <row r="678">
       <c r="A678" s="1" t="inlineStr">
         <is>
-          <t>e-commerce</t>
+          <t>transformation</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -17395,7 +17395,7 @@
     <row r="679">
       <c r="A679" s="1" t="inlineStr">
         <is>
-          <t>transformation</t>
+          <t>social shop</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -17420,7 +17420,7 @@
     <row r="680">
       <c r="A680" s="1" t="inlineStr">
         <is>
-          <t>social shop</t>
+          <t>e-commerce</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -17495,7 +17495,7 @@
     <row r="683">
       <c r="A683" s="1" t="inlineStr">
         <is>
-          <t>poa</t>
+          <t>raft</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -17520,7 +17520,7 @@
     <row r="684">
       <c r="A684" s="1" t="inlineStr">
         <is>
-          <t>raft</t>
+          <t>poet</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -17545,7 +17545,7 @@
     <row r="685">
       <c r="A685" s="1" t="inlineStr">
         <is>
-          <t>poet</t>
+          <t>poa</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -17570,7 +17570,7 @@
     <row r="686">
       <c r="A686" s="1" t="inlineStr">
         <is>
-          <t>private chain</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -17595,7 +17595,7 @@
     <row r="687">
       <c r="A687" s="1" t="inlineStr">
         <is>
-          <t>implementation</t>
+          <t>practical insight</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -17620,7 +17620,7 @@
     <row r="688">
       <c r="A688" s="1" t="inlineStr">
         <is>
-          <t>practical insight</t>
+          <t>private chain</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -17670,7 +17670,7 @@
     <row r="690">
       <c r="A690" s="1" t="inlineStr">
         <is>
-          <t>layer architecture</t>
+          <t>service-oriented architecture</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -17695,7 +17695,7 @@
     <row r="691">
       <c r="A691" s="1" t="inlineStr">
         <is>
-          <t>service-oriented architecture</t>
+          <t>enterprise service</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -17720,7 +17720,7 @@
     <row r="692">
       <c r="A692" s="1" t="inlineStr">
         <is>
-          <t>enterprise service</t>
+          <t>layer architecture</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -17745,7 +17745,7 @@
     <row r="693">
       <c r="A693" s="1" t="inlineStr">
         <is>
-          <t>ransomware</t>
+          <t>electronic payment</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -17845,7 +17845,7 @@
     <row r="697">
       <c r="A697" s="1" t="inlineStr">
         <is>
-          <t>electronic payment</t>
+          <t>ransomware</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -18045,7 +18045,7 @@
     <row r="705">
       <c r="A705" s="1" t="inlineStr">
         <is>
-          <t>data analytics</t>
+          <t>digilocker</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -18070,7 +18070,7 @@
     <row r="706">
       <c r="A706" s="1" t="inlineStr">
         <is>
-          <t>aadhaar authentication</t>
+          <t>argon2id</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -18095,7 +18095,7 @@
     <row r="707">
       <c r="A707" s="1" t="inlineStr">
         <is>
-          <t>argon2id</t>
+          <t>aadhaar authentication</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -18120,7 +18120,7 @@
     <row r="708">
       <c r="A708" s="1" t="inlineStr">
         <is>
-          <t>digilocker</t>
+          <t>data analytics</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -18145,7 +18145,7 @@
     <row r="709">
       <c r="A709" s="1" t="inlineStr">
         <is>
-          <t>cryptoexchanges</t>
+          <t>token offer</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -18170,7 +18170,7 @@
     <row r="710">
       <c r="A710" s="1" t="inlineStr">
         <is>
-          <t>token offer</t>
+          <t>cryptoexchanges</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -18195,7 +18195,7 @@
     <row r="711">
       <c r="A711" s="1" t="inlineStr">
         <is>
-          <t>model-driven engineer</t>
+          <t>archimate</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -18220,7 +18220,7 @@
     <row r="712">
       <c r="A712" s="1" t="inlineStr">
         <is>
-          <t>archimate</t>
+          <t>hyperledger composer</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -18245,7 +18245,7 @@
     <row r="713">
       <c r="A713" s="1" t="inlineStr">
         <is>
-          <t>hyperledger composer</t>
+          <t>demo</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -18270,7 +18270,7 @@
     <row r="714">
       <c r="A714" s="1" t="inlineStr">
         <is>
-          <t>demo</t>
+          <t>enterprise engineer</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -18295,7 +18295,7 @@
     <row r="715">
       <c r="A715" s="1" t="inlineStr">
         <is>
-          <t>enterprise engineer</t>
+          <t>model-driven engineer</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -18345,7 +18345,7 @@
     <row r="717">
       <c r="A717" s="1" t="inlineStr">
         <is>
-          <t>dimension</t>
+          <t>ecommerce application</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -18370,7 +18370,7 @@
     <row r="718">
       <c r="A718" s="1" t="inlineStr">
         <is>
-          <t>enterprise</t>
+          <t>dimension</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -18395,7 +18395,7 @@
     <row r="719">
       <c r="A719" s="1" t="inlineStr">
         <is>
-          <t>ecommerce application</t>
+          <t>enterprise</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -18420,7 +18420,7 @@
     <row r="720">
       <c r="A720" s="1" t="inlineStr">
         <is>
-          <t>platform plan</t>
+          <t>virtual item</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -18445,7 +18445,7 @@
     <row r="721">
       <c r="A721" s="1" t="inlineStr">
         <is>
-          <t>virtual item</t>
+          <t>platform plan</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -18470,7 +18470,7 @@
     <row r="722">
       <c r="A722" s="1" t="inlineStr">
         <is>
-          <t>research direction</t>
+          <t>evolution</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -18520,7 +18520,7 @@
     <row r="724">
       <c r="A724" s="1" t="inlineStr">
         <is>
-          <t>evolution</t>
+          <t>research direction</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -18545,7 +18545,7 @@
     <row r="725">
       <c r="A725" s="1" t="inlineStr">
         <is>
-          <t>mobile compute</t>
+          <t>mobile application</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -18570,7 +18570,7 @@
     <row r="726">
       <c r="A726" s="1" t="inlineStr">
         <is>
-          <t>majority protocol</t>
+          <t>gpu compute</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -18595,7 +18595,7 @@
     <row r="727">
       <c r="A727" s="1" t="inlineStr">
         <is>
-          <t>gpu compute</t>
+          <t>mobile compute</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -18620,7 +18620,7 @@
     <row r="728">
       <c r="A728" s="1" t="inlineStr">
         <is>
-          <t>mobile application</t>
+          <t>digital health</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -18645,7 +18645,7 @@
     <row r="729">
       <c r="A729" s="1" t="inlineStr">
         <is>
-          <t>digital health</t>
+          <t>majority protocol</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -18670,7 +18670,7 @@
     <row r="730">
       <c r="A730" s="1" t="inlineStr">
         <is>
-          <t>product recall</t>
+          <t>serialization</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -18720,7 +18720,7 @@
     <row r="732">
       <c r="A732" s="1" t="inlineStr">
         <is>
-          <t>serialization</t>
+          <t>product recall</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -18870,7 +18870,7 @@
     <row r="738">
       <c r="A738" s="1" t="inlineStr">
         <is>
-          <t>power system</t>
+          <t>electrical energy trade</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -18895,7 +18895,7 @@
     <row r="739">
       <c r="A739" s="1" t="inlineStr">
         <is>
-          <t>electrical energy trade</t>
+          <t>power system</t>
         </is>
       </c>
       <c r="B739" t="n">
@@ -18995,7 +18995,7 @@
     <row r="743">
       <c r="A743" s="1" t="inlineStr">
         <is>
-          <t>rfid</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="B743" t="n">
@@ -19045,7 +19045,7 @@
     <row r="745">
       <c r="A745" s="1" t="inlineStr">
         <is>
-          <t>characteristic</t>
+          <t>rfid</t>
         </is>
       </c>
       <c r="B745" t="n">
@@ -19070,7 +19070,7 @@
     <row r="746">
       <c r="A746" s="1" t="inlineStr">
         <is>
-          <t>international trade deal</t>
+          <t>o38</t>
         </is>
       </c>
       <c r="B746" t="n">
@@ -19120,7 +19120,7 @@
     <row r="748">
       <c r="A748" s="1" t="inlineStr">
         <is>
-          <t>o38</t>
+          <t>l88</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -19145,7 +19145,7 @@
     <row r="749">
       <c r="A749" s="1" t="inlineStr">
         <is>
-          <t>electronic registration</t>
+          <t>к10</t>
         </is>
       </c>
       <c r="B749" t="n">
@@ -19170,7 +19170,7 @@
     <row r="750">
       <c r="A750" s="1" t="inlineStr">
         <is>
-          <t>k15</t>
+          <t>public procurement</t>
         </is>
       </c>
       <c r="B750" t="n">
@@ -19195,7 +19195,7 @@
     <row r="751">
       <c r="A751" s="1" t="inlineStr">
         <is>
-          <t>l88</t>
+          <t>electronic registration</t>
         </is>
       </c>
       <c r="B751" t="n">
@@ -19220,7 +19220,7 @@
     <row r="752">
       <c r="A752" s="1" t="inlineStr">
         <is>
-          <t>k41</t>
+          <t>k15</t>
         </is>
       </c>
       <c r="B752" t="n">
@@ -19245,7 +19245,7 @@
     <row r="753">
       <c r="A753" s="1" t="inlineStr">
         <is>
-          <t>public procurement</t>
+          <t>international trade deal</t>
         </is>
       </c>
       <c r="B753" t="n">
@@ -19270,7 +19270,7 @@
     <row r="754">
       <c r="A754" s="1" t="inlineStr">
         <is>
-          <t>к10</t>
+          <t>k41</t>
         </is>
       </c>
       <c r="B754" t="n">
@@ -19345,7 +19345,7 @@
     <row r="757">
       <c r="A757" s="1" t="inlineStr">
         <is>
-          <t>tax collection</t>
+          <t>technology innovation</t>
         </is>
       </c>
       <c r="B757" t="n">
@@ -19370,7 +19370,7 @@
     <row r="758">
       <c r="A758" s="1" t="inlineStr">
         <is>
-          <t>technology application</t>
+          <t>management</t>
         </is>
       </c>
       <c r="B758" t="n">
@@ -19395,7 +19395,7 @@
     <row r="759">
       <c r="A759" s="1" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>technology application</t>
         </is>
       </c>
       <c r="B759" t="n">
@@ -19420,7 +19420,7 @@
     <row r="760">
       <c r="A760" s="1" t="inlineStr">
         <is>
-          <t>technology innovation</t>
+          <t>tax collection</t>
         </is>
       </c>
       <c r="B760" t="n">
@@ -19595,7 +19595,7 @@
     <row r="767">
       <c r="A767" s="1" t="inlineStr">
         <is>
-          <t>money launder</t>
+          <t>token economy</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -19670,7 +19670,7 @@
     <row r="770">
       <c r="A770" s="1" t="inlineStr">
         <is>
-          <t>act</t>
+          <t>corruption</t>
         </is>
       </c>
       <c r="B770" t="n">
@@ -19695,7 +19695,7 @@
     <row r="771">
       <c r="A771" s="1" t="inlineStr">
         <is>
-          <t>corruption</t>
+          <t>fatf</t>
         </is>
       </c>
       <c r="B771" t="n">
@@ -19720,7 +19720,7 @@
     <row r="772">
       <c r="A772" s="1" t="inlineStr">
         <is>
-          <t>token economy</t>
+          <t>act</t>
         </is>
       </c>
       <c r="B772" t="n">
@@ -19770,7 +19770,7 @@
     <row r="774">
       <c r="A774" s="1" t="inlineStr">
         <is>
-          <t>fatf</t>
+          <t>money launder</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -19970,7 +19970,7 @@
     <row r="782">
       <c r="A782" s="1" t="inlineStr">
         <is>
-          <t>construction contract</t>
+          <t>technology convergence</t>
         </is>
       </c>
       <c r="B782" t="n">
@@ -19995,7 +19995,7 @@
     <row r="783">
       <c r="A783" s="1" t="inlineStr">
         <is>
-          <t>technology convergence</t>
+          <t>cost management</t>
         </is>
       </c>
       <c r="B783" t="n">
@@ -20020,7 +20020,7 @@
     <row r="784">
       <c r="A784" s="1" t="inlineStr">
         <is>
-          <t>cost management</t>
+          <t>construction contract</t>
         </is>
       </c>
       <c r="B784" t="n">
@@ -20145,7 +20145,7 @@
     <row r="789">
       <c r="A789" s="1" t="inlineStr">
         <is>
-          <t>connect vehicle</t>
+          <t>digital technology</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -20170,7 +20170,7 @@
     <row r="790">
       <c r="A790" s="1" t="inlineStr">
         <is>
-          <t>digital technology</t>
+          <t>connect vehicle</t>
         </is>
       </c>
       <c r="B790" t="n">
@@ -20270,7 +20270,7 @@
     <row r="794">
       <c r="A794" s="1" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>uae</t>
         </is>
       </c>
       <c r="B794" t="n">
@@ -20295,7 +20295,7 @@
     <row r="795">
       <c r="A795" s="1" t="inlineStr">
         <is>
-          <t>uae</t>
+          <t>market</t>
         </is>
       </c>
       <c r="B795" t="n">
@@ -20320,7 +20320,7 @@
     <row r="796">
       <c r="A796" s="1" t="inlineStr">
         <is>
-          <t>rocksdb</t>
+          <t>state</t>
         </is>
       </c>
       <c r="B796" t="n">
@@ -20345,7 +20345,7 @@
     <row r="797">
       <c r="A797" s="1" t="inlineStr">
         <is>
-          <t>key-value</t>
+          <t>platform</t>
         </is>
       </c>
       <c r="B797" t="n">
@@ -20370,7 +20370,7 @@
     <row r="798">
       <c r="A798" s="1" t="inlineStr">
         <is>
-          <t>leveldb</t>
+          <t>rocksdb</t>
         </is>
       </c>
       <c r="B798" t="n">
@@ -20395,7 +20395,7 @@
     <row r="799">
       <c r="A799" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>key-value</t>
         </is>
       </c>
       <c r="B799" t="n">
@@ -20420,7 +20420,7 @@
     <row r="800">
       <c r="A800" s="1" t="inlineStr">
         <is>
-          <t>platform</t>
+          <t>leveldb</t>
         </is>
       </c>
       <c r="B800" t="n">
@@ -20445,7 +20445,7 @@
     <row r="801">
       <c r="A801" s="1" t="inlineStr">
         <is>
-          <t>electoral process</t>
+          <t>vote system</t>
         </is>
       </c>
       <c r="B801" t="n">
@@ -20470,7 +20470,7 @@
     <row r="802">
       <c r="A802" s="1" t="inlineStr">
         <is>
-          <t>ballot-box</t>
+          <t>electoral process</t>
         </is>
       </c>
       <c r="B802" t="n">
@@ -20495,7 +20495,7 @@
     <row r="803">
       <c r="A803" s="1" t="inlineStr">
         <is>
-          <t>vote system</t>
+          <t>ballot-box</t>
         </is>
       </c>
       <c r="B803" t="n">
@@ -20545,7 +20545,7 @@
     <row r="805">
       <c r="A805" s="1" t="inlineStr">
         <is>
-          <t>custom procedure</t>
+          <t>cross border</t>
         </is>
       </c>
       <c r="B805" t="n">
@@ -20570,7 +20570,7 @@
     <row r="806">
       <c r="A806" s="1" t="inlineStr">
         <is>
-          <t>cross border</t>
+          <t>custom procedure</t>
         </is>
       </c>
       <c r="B806" t="n">
@@ -20695,7 +20695,7 @@
     <row r="811">
       <c r="A811" s="1" t="inlineStr">
         <is>
-          <t>empirical evaluation</t>
+          <t>evaluation framework</t>
         </is>
       </c>
       <c r="B811" t="n">
@@ -20720,7 +20720,7 @@
     <row r="812">
       <c r="A812" s="1" t="inlineStr">
         <is>
-          <t>evaluation framework</t>
+          <t>empirical evaluation</t>
         </is>
       </c>
       <c r="B812" t="n">
@@ -20745,7 +20745,7 @@
     <row r="813">
       <c r="A813" s="1" t="inlineStr">
         <is>
-          <t>tor</t>
+          <t>pii</t>
         </is>
       </c>
       <c r="B813" t="n">
@@ -20770,7 +20770,7 @@
     <row r="814">
       <c r="A814" s="1" t="inlineStr">
         <is>
-          <t>pii</t>
+          <t>tor</t>
         </is>
       </c>
       <c r="B814" t="n">
@@ -20945,7 +20945,7 @@
     <row r="821">
       <c r="A821" s="1" t="inlineStr">
         <is>
-          <t>financial account</t>
+          <t>technology integration</t>
         </is>
       </c>
       <c r="B821" t="n">
@@ -20970,7 +20970,7 @@
     <row r="822">
       <c r="A822" s="1" t="inlineStr">
         <is>
-          <t>technology integration</t>
+          <t>account information system</t>
         </is>
       </c>
       <c r="B822" t="n">
@@ -20995,7 +20995,7 @@
     <row r="823">
       <c r="A823" s="1" t="inlineStr">
         <is>
-          <t>account information system</t>
+          <t>financial account</t>
         </is>
       </c>
       <c r="B823" t="n">
@@ -21195,7 +21195,7 @@
     <row r="831">
       <c r="A831" s="1" t="inlineStr">
         <is>
-          <t>uaanet</t>
+          <t>uav security</t>
         </is>
       </c>
       <c r="B831" t="n">
@@ -21220,7 +21220,7 @@
     <row r="832">
       <c r="A832" s="1" t="inlineStr">
         <is>
-          <t>manet</t>
+          <t>uav</t>
         </is>
       </c>
       <c r="B832" t="n">
@@ -21245,7 +21245,7 @@
     <row r="833">
       <c r="A833" s="1" t="inlineStr">
         <is>
-          <t>uav security</t>
+          <t>manet</t>
         </is>
       </c>
       <c r="B833" t="n">
@@ -21270,7 +21270,7 @@
     <row r="834">
       <c r="A834" s="1" t="inlineStr">
         <is>
-          <t>uav</t>
+          <t>uaanet</t>
         </is>
       </c>
       <c r="B834" t="n">
@@ -21345,7 +21345,7 @@
     <row r="837">
       <c r="A837" s="1" t="inlineStr">
         <is>
-          <t>tow matrix</t>
+          <t>footwear</t>
         </is>
       </c>
       <c r="B837" t="n">
@@ -21370,7 +21370,7 @@
     <row r="838">
       <c r="A838" s="1" t="inlineStr">
         <is>
-          <t>competitive position</t>
+          <t>tow matrix</t>
         </is>
       </c>
       <c r="B838" t="n">
@@ -21395,7 +21395,7 @@
     <row r="839">
       <c r="A839" s="1" t="inlineStr">
         <is>
-          <t>footwear</t>
+          <t>diffusion of innovation</t>
         </is>
       </c>
       <c r="B839" t="n">
@@ -21420,7 +21420,7 @@
     <row r="840">
       <c r="A840" s="1" t="inlineStr">
         <is>
-          <t>diffusion of innovation</t>
+          <t>competitive position</t>
         </is>
       </c>
       <c r="B840" t="n">
@@ -21495,7 +21495,7 @@
     <row r="843">
       <c r="A843" s="1" t="inlineStr">
         <is>
-          <t>smart learn environment</t>
+          <t>inclusion</t>
         </is>
       </c>
       <c r="B843" t="n">
@@ -21545,7 +21545,7 @@
     <row r="845">
       <c r="A845" s="1" t="inlineStr">
         <is>
-          <t>inclusion</t>
+          <t>smart learn environment</t>
         </is>
       </c>
       <c r="B845" t="n">
@@ -21620,7 +21620,7 @@
     <row r="848">
       <c r="A848" s="1" t="inlineStr">
         <is>
-          <t>bpmn</t>
+          <t>business process</t>
         </is>
       </c>
       <c r="B848" t="n">
@@ -21670,7 +21670,7 @@
     <row r="850">
       <c r="A850" s="1" t="inlineStr">
         <is>
-          <t>business process</t>
+          <t>bpmn</t>
         </is>
       </c>
       <c r="B850" t="n">
@@ -21795,7 +21795,7 @@
     <row r="855">
       <c r="A855" s="1" t="inlineStr">
         <is>
-          <t>ecg monitor</t>
+          <t>edge ai</t>
         </is>
       </c>
       <c r="B855" t="n">
@@ -21845,7 +21845,7 @@
     <row r="857">
       <c r="A857" s="1" t="inlineStr">
         <is>
-          <t>edge ai</t>
+          <t>ecg monitor</t>
         </is>
       </c>
       <c r="B857" t="n">
@@ -21895,7 +21895,7 @@
     <row r="859">
       <c r="A859" s="1" t="inlineStr">
         <is>
-          <t>pseudonymity</t>
+          <t>byzantine general problem</t>
         </is>
       </c>
       <c r="B859" t="n">
@@ -21920,7 +21920,7 @@
     <row r="860">
       <c r="A860" s="1" t="inlineStr">
         <is>
-          <t>new monetary economics</t>
+          <t>money</t>
         </is>
       </c>
       <c r="B860" t="n">
@@ -21945,7 +21945,7 @@
     <row r="861">
       <c r="A861" s="1" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>pseudonymity</t>
         </is>
       </c>
       <c r="B861" t="n">
@@ -22020,7 +22020,7 @@
     <row r="864">
       <c r="A864" s="1" t="inlineStr">
         <is>
-          <t>exchange rate indeterminacy</t>
+          <t>new monetary economics</t>
         </is>
       </c>
       <c r="B864" t="n">
@@ -22045,7 +22045,7 @@
     <row r="865">
       <c r="A865" s="1" t="inlineStr">
         <is>
-          <t>byzantine general problem</t>
+          <t>exchange rate indeterminacy</t>
         </is>
       </c>
       <c r="B865" t="n">
